--- a/data/automation.xlsx
+++ b/data/automation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chinthaka/Documents/Intellij_Workspace/CucumberCW/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958AEC57-BE49-304F-97A7-493A5B4268A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1E5166-4E1F-734E-BD57-CFC566144BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{AE75BB6F-6E92-3B47-AE52-7E5EB2E6A2F3}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
